--- a/docs/mcode-r4/obf-Observation.xlsx
+++ b/docs/mcode-r4/obf-Observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -397,7 +397,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReferralRequest)
 </t>
   </si>
   <si>
@@ -426,14 +426,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationAdministration|http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
@@ -570,14 +567,14 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Group|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
@@ -601,7 +598,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DomainResource)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -624,7 +621,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Encounter)
 </t>
   </si>
   <si>
@@ -715,7 +712,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -744,7 +741,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SampledData}timedateTimePeriod</t>
+CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-SampledData}timedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -844,7 +841,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -879,7 +876,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -935,7 +932,7 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Laterality-extension}
 </t>
   </si>
   <si>
@@ -952,7 +949,7 @@
     <t>orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Orientation-extension}
 </t>
   </si>
   <si>
@@ -969,7 +966,7 @@
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -1096,7 +1093,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1296,7 +1293,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1318,7 +1315,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1613,7 +1610,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1627,7 +1624,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.2421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3089,10 +3086,10 @@
         <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3157,16 +3154,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3203,16 +3200,16 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3237,14 +3234,14 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>55</v>
@@ -3276,19 +3273,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3296,7 +3293,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3319,19 +3316,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3356,14 +3353,14 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3380,7 +3377,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3404,10 +3401,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3415,11 +3412,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3438,19 +3435,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3475,14 +3472,14 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3514,27 +3511,27 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3557,19 +3554,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3618,7 +3615,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3633,19 +3630,19 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3676,16 +3673,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3735,7 +3732,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3756,13 +3753,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3770,11 +3767,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3793,19 +3790,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3854,7 +3851,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3869,19 +3866,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3889,11 +3886,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3912,19 +3909,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3973,7 +3970,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3988,19 +3985,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -4008,7 +4005,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4031,16 +4028,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4090,7 +4087,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4111,13 +4108,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4125,7 +4122,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4148,17 +4145,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4207,7 +4204,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4222,19 +4219,19 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4265,19 +4262,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4326,7 +4323,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4335,33 +4332,33 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AI23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4384,19 +4381,19 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4421,14 +4418,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4445,7 +4442,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4454,7 +4451,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>45</v>
@@ -4469,7 +4466,7 @@
         <v>97</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4480,11 +4477,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4503,19 +4500,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4540,14 +4537,14 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4564,7 +4561,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4582,24 +4579,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4622,19 +4619,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4683,7 +4680,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4704,10 +4701,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4741,16 +4738,16 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4780,7 +4777,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4798,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4816,24 +4813,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4856,13 +4853,13 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4913,7 +4910,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4937,7 +4934,7 @@
         <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4948,7 +4945,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4977,7 +4974,7 @@
         <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>103</v>
@@ -5018,19 +5015,19 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AB29" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AB29" t="s" s="2">
+      <c r="AC29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
+      <c r="AE29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5054,7 +5051,7 @@
         <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5065,10 +5062,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>45</v>
@@ -5090,11 +5087,11 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5145,7 +5142,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5180,10 +5177,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>45</v>
@@ -5205,11 +5202,11 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5260,7 +5257,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5295,10 +5292,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>45</v>
@@ -5320,11 +5317,11 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5375,7 +5372,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5410,7 +5407,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5433,19 +5430,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5494,7 +5491,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5515,10 +5512,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5529,7 +5526,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5552,19 +5549,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5613,7 +5610,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5634,10 +5631,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5648,7 +5645,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5671,19 +5668,19 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5708,14 +5705,14 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5753,10 +5750,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5767,7 +5764,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5790,16 +5787,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5849,7 +5846,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5867,24 +5864,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5907,16 +5904,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5966,7 +5963,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5984,24 +5981,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6024,19 +6021,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6085,7 +6082,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6097,19 +6094,19 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6120,7 +6117,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6143,13 +6140,13 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6200,7 +6197,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6224,7 +6221,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6264,7 +6261,7 @@
         <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>103</v>
@@ -6317,7 +6314,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6341,7 +6338,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6352,11 +6349,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6378,10 +6375,10 @@
         <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>103</v>
@@ -6436,7 +6433,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6471,7 +6468,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6494,13 +6491,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6551,7 +6548,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6560,22 +6557,22 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AI42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6586,7 +6583,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6609,13 +6606,13 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6666,7 +6663,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6675,22 +6672,22 @@
         <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AI43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6701,7 +6698,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6724,19 +6721,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6761,14 +6758,14 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6785,7 +6782,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6803,13 +6800,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6820,7 +6817,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6843,19 +6840,19 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6880,14 +6877,14 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6904,7 +6901,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6922,13 +6919,13 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AM45" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6962,17 +6959,17 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7021,7 +7018,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7045,7 +7042,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7056,7 +7053,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7079,13 +7076,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7136,7 +7133,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7157,10 +7154,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7171,7 +7168,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7194,16 +7191,16 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7253,7 +7250,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7274,10 +7271,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7311,16 +7308,16 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7370,7 +7367,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7391,10 +7388,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7428,19 +7425,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7489,7 +7486,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7501,19 +7498,19 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7524,7 +7521,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7547,13 +7544,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7604,7 +7601,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7628,7 +7625,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7668,7 +7665,7 @@
         <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>103</v>
@@ -7721,7 +7718,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7745,7 +7742,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7756,11 +7753,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7782,10 +7779,10 @@
         <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>103</v>
@@ -7840,7 +7837,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7898,19 +7895,19 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7935,14 +7932,14 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X54" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="X54" t="s" s="2">
+      <c r="Y54" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7959,7 +7956,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>55</v>
@@ -7977,16 +7974,16 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -7994,7 +7991,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8017,19 +8014,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8078,7 +8075,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8096,24 +8093,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8136,19 +8133,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8173,14 +8170,14 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8197,7 +8194,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8206,7 +8203,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>45</v>
@@ -8221,7 +8218,7 @@
         <v>97</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8232,11 +8229,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8255,19 +8252,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8292,14 +8289,14 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8316,7 +8313,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8334,24 +8331,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8374,19 +8371,19 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8435,7 +8432,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8456,10 +8453,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8470,7 +8467,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8493,13 +8490,13 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8550,7 +8547,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8574,7 +8571,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8585,7 +8582,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8614,7 +8611,7 @@
         <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>103</v>
@@ -8667,7 +8664,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8691,7 +8688,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8702,11 +8699,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8728,10 +8725,10 @@
         <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>103</v>
@@ -8786,7 +8783,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8821,7 +8818,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8844,13 +8841,13 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8901,7 +8898,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8910,22 +8907,22 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8936,7 +8933,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8959,13 +8956,13 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9016,7 +9013,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9025,22 +9022,22 @@
         <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AM63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9051,7 +9048,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9074,19 +9071,19 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9111,14 +9108,14 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9135,7 +9132,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9153,13 +9150,13 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AM64" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9193,19 +9190,19 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9230,14 +9227,14 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9254,7 +9251,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9272,13 +9269,13 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AM65" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9289,7 +9286,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9312,17 +9309,17 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9371,7 +9368,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9395,7 +9392,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9406,7 +9403,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9429,13 +9426,13 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9486,7 +9483,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9507,10 +9504,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>

--- a/docs/mcode-r4/obf-Observation.xlsx
+++ b/docs/mcode-r4/obf-Observation.xlsx
@@ -397,7 +397,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReferralRequest)
 </t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|Group|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|Group|Device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -1093,7 +1093,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1315,7 +1315,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/obf-Observation.xlsx
+++ b/docs/mcode-r4/obf-Observation.xlsx
@@ -397,7 +397,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -938,28 +938,28 @@
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Orientation-extension}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -975,11 +975,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
